--- a/data/trans_dic/P23_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea</t>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 16,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,37</t>
+          <t>0,0; 22,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 16,96</t>
+          <t>0,0; 26,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 9,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,81</t>
+          <t>0,0; 11,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,27</t>
+          <t>0,0; 10,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 9,36</t>
+          <t>0,0; 7,14</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,24; 13,38</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 16,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,12 +797,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,7 +812,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -767,22 +822,37 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 30,17</t>
+          <t>0,0; 42,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,44</t>
+          <t>0,0; 15,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 16,65</t>
+          <t>0,0; 6,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 27,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,77</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5,84%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,29</t>
+          <t>1,75; 14,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,71; 11,37</t>
+          <t>1,52; 14,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,68</t>
+          <t>1,77; 16,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 6,68</t>
+          <t>2,0; 15,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,88</t>
+          <t>0,98; 8,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 9,35</t>
+          <t>1,08; 9,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,59</t>
+          <t>2,04; 13,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 7,61</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 7,36</t>
+          <t>2,48; 9,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 9,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 11,22</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 7,62</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,85%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 10,08</t>
+          <t>1,32; 10,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 10,4</t>
+          <t>1,35; 12,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 8,16</t>
+          <t>1,34; 12,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 12,27</t>
+          <t>2,51; 14,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,78</t>
+          <t>4,92; 16,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,51</t>
+          <t>2,85; 13,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 9,05</t>
+          <t>4,05; 15,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,56</t>
+          <t>5,8; 18,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,29</t>
+          <t>4,4; 12,24</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 10,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 11,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 13,37</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>8,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,6</t>
+          <t>1,16; 10,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 25,03</t>
+          <t>4,31; 35,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 9,15</t>
+          <t>1,28; 11,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,03</t>
+          <t>4,53; 31,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 13,7</t>
+          <t>0,0; 11,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,53</t>
+          <t>2,15; 18,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,33</t>
+          <t>0,0; 8,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,93; 16,06</t>
+          <t>3,58; 21,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,46</t>
+          <t>0,84; 7,74</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,3; 26,51</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 7,57</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 24,01</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3,13%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,46</t>
+          <t>0,0; 12,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,97</t>
+          <t>0,0; 14,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 19,04</t>
+          <t>0,0; 12,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 10,56</t>
+          <t>2,06; 17,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,66</t>
+          <t>0,0; 15,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 11,45</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 7,42</t>
+          <t>1,82; 17,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,32</t>
+          <t>1,24; 10,96</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,12</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 8,46</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 13,33</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,96</t>
+          <t>1,89; 5,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,73</t>
+          <t>3,82; 16,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 5,34</t>
+          <t>2,7; 8,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,54</t>
+          <t>2,83; 8,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,88</t>
+          <t>2,59; 6,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,86</t>
+          <t>2,64; 6,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,85</t>
+          <t>2,37; 6,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,78</t>
+          <t>3,36; 8,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,62; 4,91</t>
+          <t>2,66; 5,5</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 9,49</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,93; 6,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,64; 7,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucho menos amor y afecto de lo que desea (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7903</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11375</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2603</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3498</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10699</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13978</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17468</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23652</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 33188</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14178</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13404</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17208</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2803; 30205</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2669; 40902</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6689</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2323</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16986</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9012</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 60670</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 35164</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 10445</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 75499</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0; 34207</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11372</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7720</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8047</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12520</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9710</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11701</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2121</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21083</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16172</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19748</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14641</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2838; 23964</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2044; 20069</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2434; 23219</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3607; 28524</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2589; 22694</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2258; 20357</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4099; 26945</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10937</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10551; 40959</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6715; 31428</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8491; 37947</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5096; 31998</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7449</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8437</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8340</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12712</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21706</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12961</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>15106</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23413</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>29154</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21398</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23446</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36125</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2456; 19980</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2170; 20695</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2100; 19130</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4911; 28459</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10664; 35021</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5295; 24769</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6992; 27545</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>12338; 39648</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>17728; 49378</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11422; 37001</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12969; 37951</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21646; 54604</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6661</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17875</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5295</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18352</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2361</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1635</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>13947</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9022</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25727</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6930</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32299</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1801; 16632</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5606; 46224</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1572; 14096</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>6999; 48107</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13112</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2015; 17601</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8293</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4911; 29100</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2281; 21012</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11859; 59339</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1865; 16332</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>18155; 70048</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2613</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4256</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9062</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3175</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>16011</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>11675</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>3175</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6288</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>19208</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13403</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13351</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 16567</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2839; 23700</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15957</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8814</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3766; 36270</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3056; 27074</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15636</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2001; 16977</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6840; 45576</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31592</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>58921</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37313</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>53470</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>42839</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35235</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>33077</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>57814</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>74432</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>94156</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>70390</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>111285</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16831; 52390</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>29088; 122996</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>21295; 67484</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>29391; 89138</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>26800; 65248</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>22231; 53809</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>19577; 51711</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>37139; 89153</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51155; 105767</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>61687; 152129</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>47339; 100733</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>78022; 160466</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>